--- a/pandas库/005.08.xlsx
+++ b/pandas库/005.08.xlsx
@@ -1,13 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,10 +19,18 @@
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -40,12 +47,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -58,16 +80,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -439,19 +464,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Fuck</t>
         </is>
@@ -466,7 +491,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>times</t>
         </is>
